--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767389.115898811</v>
+        <v>1766676.851145065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166956.7258165586</v>
+        <v>166956.7258165585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,52 +1233,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>107.8939161071726</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013689</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692364</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>129.5861656321912</v>
       </c>
       <c r="W11" t="n">
         <v>159.7546999762258</v>
@@ -1452,7 +1452,7 @@
         <v>9.376387674824855</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1491,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050413</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T12" t="n">
         <v>36.82929343736541</v>
@@ -1506,13 +1506,13 @@
         <v>59.08630782930755</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586118</v>
+        <v>157.925202305052</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747053</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X12" t="n">
-        <v>122.5283371480002</v>
+        <v>39.17115058992954</v>
       </c>
       <c r="Y12" t="n">
         <v>45.24252228448455</v>
@@ -1616,64 +1616,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.74367530294984</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>72.00878260204232</v>
+      </c>
+      <c r="V14" t="n">
+        <v>112.8424903292409</v>
+      </c>
+      <c r="W14" t="n">
+        <v>159.7546999762259</v>
+      </c>
+      <c r="X14" t="n">
+        <v>181.6409504451651</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="G14" t="n">
-        <v>188.4860450762373</v>
-      </c>
-      <c r="H14" t="n">
-        <v>109.180668440326</v>
-      </c>
-      <c r="I14" t="n">
-        <v>62.87039510700842</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16.74367530294975</v>
-      </c>
-      <c r="S14" t="n">
-        <v>49.37664323013689</v>
-      </c>
-      <c r="T14" t="n">
-        <v>44.32438889692364</v>
-      </c>
-      <c r="U14" t="n">
-        <v>72.00878260204223</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.376387674824855</v>
+        <v>127.5322088615927</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050413</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736541</v>
+        <v>36.82929343736549</v>
       </c>
       <c r="U15" t="n">
-        <v>188.4860450762373</v>
+        <v>59.08630782930764</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586118</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="X15" t="n">
-        <v>43.85602681459401</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.4860450762373</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.2894475238664</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345541</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433097</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356656</v>
+        <v>110.5147946356657</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490884</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870146</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462735</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256529</v>
+        <v>76.63531193256465</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591078</v>
+        <v>52.75356893591072</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695924</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E17" t="n">
-        <v>74.02698361636811</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F17" t="n">
         <v>105.7473211947454</v>
@@ -1859,7 +1859,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426092</v>
+        <v>49.57010498426084</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388398</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049885</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943809</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318185</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393112</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>188.4860450762373</v>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>9.099968253284093</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>159.1448190447266</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>52.75356893591072</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695839</v>
       </c>
       <c r="E20" t="n">
         <v>74.02698361636806</v>
@@ -2096,7 +2096,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426084</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>59.6906724406942</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>71.03805596150349</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>56.94113684208465</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>24.42295906726177</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>188.4860450762373</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.5992110257043</v>
+        <v>160.5992110257044</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7174680290498</v>
+        <v>136.7174680290499</v>
       </c>
       <c r="D26" t="n">
         <v>124.2841302900983</v>
@@ -2570,10 +2570,10 @@
         <v>205.350205597189</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5340040773999</v>
+        <v>133.5340040774</v>
       </c>
       <c r="I26" t="n">
-        <v>27.5241296044205</v>
+        <v>27.52412960442052</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754897</v>
+        <v>14.03037772754899</v>
       </c>
       <c r="T26" t="n">
-        <v>8.97812339433572</v>
+        <v>8.978123394335739</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945433</v>
       </c>
       <c r="V26" t="n">
-        <v>107.391754257023</v>
+        <v>107.3917542570231</v>
       </c>
       <c r="W26" t="n">
         <v>124.4084344736379</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2946849425771</v>
+        <v>146.2946849425772</v>
       </c>
       <c r="Y26" t="n">
         <v>168.7975380663209</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4.826129942734931</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>150.8129229372722</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47830382393112</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777481</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671962</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16089156327328</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488263</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341613</v>
+        <v>3.824885087341642</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896625</v>
+        <v>9.896256781896653</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086749</v>
+        <v>21.95049958086751</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174307</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307767</v>
+        <v>75.1685291330777</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232094</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720636</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113565</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039455</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9908827095072</v>
+        <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G29" t="n">
-        <v>205.350205597189</v>
+        <v>205.3502055971889</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5340040774</v>
+        <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.5241296044205</v>
+        <v>27.52412960442047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754897</v>
+        <v>14.03037772754894</v>
       </c>
       <c r="T29" t="n">
-        <v>8.97812339433572</v>
+        <v>8.978123394335691</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
@@ -2871,7 +2871,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.54073236353778</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777481</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U30" t="n">
-        <v>130.915242750221</v>
+        <v>23.74004232671959</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327325</v>
+        <v>27.16089156327322</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2165542248826</v>
+        <v>53.21655422488257</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341613</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896625</v>
+        <v>9.896256781896597</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086749</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307767</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="32">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>99.08866690760476</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755568601</v>
+        <v>0.5731434755568602</v>
       </c>
       <c r="U33" t="n">
         <v>237.2280716788486</v>
@@ -3168,7 +3168,7 @@
         <v>26.25100710405263</v>
       </c>
       <c r="W33" t="n">
-        <v>165.7183954580998</v>
+        <v>52.30666976566198</v>
       </c>
       <c r="X33" t="n">
         <v>2.915000628120993</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0281659433314</v>
+        <v>102.0281659433315</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14642294667686</v>
+        <v>78.14642294667698</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71308520772533</v>
+        <v>65.71308520772544</v>
       </c>
       <c r="E35" t="n">
-        <v>99.4198376271342</v>
+        <v>99.41983762713431</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1401752055115</v>
+        <v>131.1401752055116</v>
       </c>
       <c r="G35" t="n">
-        <v>146.779160514816</v>
+        <v>146.7791605148161</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96295899502701</v>
+        <v>74.96295899502712</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82070917465006</v>
+        <v>48.82070917465018</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83738939126494</v>
+        <v>65.83738939126505</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72363986020417</v>
+        <v>87.72363986020429</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2264929839479</v>
+        <v>110.226492983948</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>73.2468539716333</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47830382393112</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R36" t="n">
-        <v>56.32693811332782</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.5974840507047</v>
+        <v>16.59748405070482</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25163265483337</v>
+        <v>18.25163265483349</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>146.7791605148161</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96295899502712</v>
+        <v>74.96295899502711</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>161.5971492688802</v>
+        <v>36.92855956127665</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280716788486</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033811</v>
+        <v>9.138387495033818</v>
       </c>
       <c r="V41" t="n">
         <v>79.86762465260253</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>71.54284242622855</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>12.95180435342956</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>25.69242462046211</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D44" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E44" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F44" t="n">
         <v>162.187090683464</v>
@@ -3992,7 +3992,7 @@
         <v>177.8260759927685</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.138387495033818</v>
+        <v>9.13838749503379</v>
       </c>
       <c r="V44" t="n">
-        <v>79.86762465260253</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88430486921756</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X44" t="n">
         <v>118.7705553381566</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>121.0460272298184</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47830382393112</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.6121941394743</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69242462046208</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V46" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W46" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4823,25 +4823,25 @@
         <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="R8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="S8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="T8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="U8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="V8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="W8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X8" t="n">
         <v>7.065308212205419</v>
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="C9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="D9" t="n">
-        <v>6.962690994954155</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E9" t="n">
-        <v>6.962690994954155</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
-        <v>6.962690994954155</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>3.763050291303539</v>
       </c>
       <c r="N9" t="n">
-        <v>10.41959988319577</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="O9" t="n">
-        <v>13.90130062000932</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R9" t="n">
         <v>10.51508435972668</v>
@@ -4914,16 +4914,16 @@
         <v>10.51508435972668</v>
       </c>
       <c r="U9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="V9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="W9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="X9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="Y9" t="n">
         <v>6.962690994954155</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124.0626372497077</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="C11" t="n">
-        <v>124.0626372497077</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="D11" t="n">
-        <v>124.0626372497077</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="E11" t="n">
-        <v>15.07888360609898</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="F11" t="n">
         <v>15.07888360609898</v>
@@ -5048,16 +5048,16 @@
         <v>231.4826618439088</v>
       </c>
       <c r="M11" t="n">
-        <v>312.3337854572541</v>
+        <v>371.7222316421669</v>
       </c>
       <c r="N11" t="n">
-        <v>498.934970082729</v>
+        <v>558.3234162676418</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4050806852708</v>
+        <v>592.5337113444241</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4050806852708</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q11" t="n">
         <v>753.9441803049491</v>
@@ -5066,25 +5066,25 @@
         <v>753.9441803049491</v>
       </c>
       <c r="S11" t="n">
-        <v>704.0687831027906</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T11" t="n">
-        <v>659.296673105898</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U11" t="n">
-        <v>659.296673105898</v>
+        <v>681.2080362624822</v>
       </c>
       <c r="V11" t="n">
-        <v>659.296673105898</v>
+        <v>550.3129194622891</v>
       </c>
       <c r="W11" t="n">
-        <v>497.9282892915285</v>
+        <v>388.9445356479196</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4525817711598</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="Y11" t="n">
-        <v>314.4525817711598</v>
+        <v>205.4688281275508</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.3300985065065</v>
+        <v>24.54998226753823</v>
       </c>
       <c r="C12" t="n">
-        <v>175.8589998450672</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D12" t="n">
         <v>15.07888360609898</v>
@@ -5127,7 +5127,7 @@
         <v>170.3626975743616</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576277</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N12" t="n">
         <v>538.6322093831027</v>
@@ -5139,31 +5139,31 @@
         <v>753.9441803049491</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398752</v>
       </c>
       <c r="R12" t="n">
-        <v>617.8614934590253</v>
+        <v>747.0010596398752</v>
       </c>
       <c r="S12" t="n">
-        <v>604.2759949635665</v>
+        <v>556.6111151184234</v>
       </c>
       <c r="T12" t="n">
-        <v>567.0746884611772</v>
+        <v>519.4098086160341</v>
       </c>
       <c r="U12" t="n">
-        <v>507.3915492396544</v>
+        <v>459.7266693945113</v>
       </c>
       <c r="V12" t="n">
-        <v>444.2530067488855</v>
+        <v>300.2062630257719</v>
       </c>
       <c r="W12" t="n">
-        <v>354.7956130847739</v>
+        <v>109.8163185043202</v>
       </c>
       <c r="X12" t="n">
-        <v>231.0296159655818</v>
+        <v>70.24949972661354</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.3300985065065</v>
+        <v>24.54998226753823</v>
       </c>
     </row>
     <row r="13">
@@ -5188,34 +5188,34 @@
         <v>54.42121117360969</v>
       </c>
       <c r="G13" t="n">
-        <v>55.92141887801363</v>
+        <v>63.76776267973932</v>
       </c>
       <c r="H13" t="n">
-        <v>68.11536667057291</v>
+        <v>63.76776267973932</v>
       </c>
       <c r="I13" t="n">
-        <v>68.11536667057291</v>
+        <v>76.92284269048092</v>
       </c>
       <c r="J13" t="n">
-        <v>68.11536667057291</v>
+        <v>134.2440312330664</v>
       </c>
       <c r="K13" t="n">
-        <v>68.11536667057291</v>
+        <v>134.2440312330664</v>
       </c>
       <c r="L13" t="n">
-        <v>212.641322276542</v>
+        <v>134.2440312330664</v>
       </c>
       <c r="M13" t="n">
-        <v>212.641322276542</v>
+        <v>134.2440312330664</v>
       </c>
       <c r="N13" t="n">
-        <v>212.641322276542</v>
+        <v>294.2452092614186</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8936825085026</v>
+        <v>402.3069076016765</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385316</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="Q13" t="n">
         <v>520.7701116317054</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>569.6477257271182</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C14" t="n">
-        <v>569.6477257271182</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D14" t="n">
-        <v>569.6477257271182</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E14" t="n">
-        <v>569.6477257271182</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2577812056664</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G14" t="n">
-        <v>188.8678366842146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913781</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
@@ -5282,19 +5282,19 @@
         <v>15.07888360609898</v>
       </c>
       <c r="L14" t="n">
-        <v>185.121047016692</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="M14" t="n">
-        <v>371.7222316421669</v>
+        <v>282.5311918449192</v>
       </c>
       <c r="N14" t="n">
-        <v>558.3234162676418</v>
+        <v>469.1323764703941</v>
       </c>
       <c r="O14" t="n">
-        <v>592.5337113444241</v>
+        <v>655.7335610958689</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9441803049491</v>
+        <v>666.4050806852708</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9441803049491</v>
@@ -5303,25 +5303,25 @@
         <v>737.0313769686362</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664777</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="T14" t="n">
-        <v>642.3838697695851</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="U14" t="n">
-        <v>569.6477257271182</v>
+        <v>664.2952329261692</v>
       </c>
       <c r="V14" t="n">
-        <v>569.6477257271182</v>
+        <v>550.3129194622892</v>
       </c>
       <c r="W14" t="n">
-        <v>569.6477257271182</v>
+        <v>388.9445356479196</v>
       </c>
       <c r="X14" t="n">
-        <v>569.6477257271182</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="Y14" t="n">
-        <v>569.6477257271182</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54998226753823</v>
+        <v>304.679412836575</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07888360609898</v>
+        <v>175.8589998450672</v>
       </c>
       <c r="D15" t="n">
         <v>15.07888360609898</v>
@@ -5364,7 +5364,7 @@
         <v>170.3626975743616</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N15" t="n">
         <v>538.6322093831027</v>
@@ -5373,34 +5373,34 @@
         <v>670.3253369263739</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S15" t="n">
-        <v>740.3586818094903</v>
+        <v>740.3586818094901</v>
       </c>
       <c r="T15" t="n">
-        <v>703.157375307101</v>
+        <v>703.1573753071008</v>
       </c>
       <c r="U15" t="n">
-        <v>512.7674307856491</v>
+        <v>643.4742360855779</v>
       </c>
       <c r="V15" t="n">
-        <v>449.6288882948803</v>
+        <v>580.335693594809</v>
       </c>
       <c r="W15" t="n">
-        <v>259.2389437734284</v>
+        <v>389.9457490733571</v>
       </c>
       <c r="X15" t="n">
-        <v>214.93992678899</v>
+        <v>350.3789302956504</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.54998226753823</v>
+        <v>304.679412836575</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07888360609898</v>
+        <v>15.59847835882614</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07888360609898</v>
+        <v>15.59847835882614</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07888360609898</v>
+        <v>48.22800082166811</v>
       </c>
       <c r="E16" t="n">
-        <v>51.17985001704189</v>
+        <v>84.32896723261095</v>
       </c>
       <c r="F16" t="n">
-        <v>51.17985001704189</v>
+        <v>84.32896723261095</v>
       </c>
       <c r="G16" t="n">
-        <v>60.52640152317152</v>
+        <v>93.67551873874049</v>
       </c>
       <c r="H16" t="n">
-        <v>60.52640152317152</v>
+        <v>105.8694665312997</v>
       </c>
       <c r="I16" t="n">
-        <v>73.68148153391313</v>
+        <v>105.8694665312997</v>
       </c>
       <c r="J16" t="n">
-        <v>131.0026700764986</v>
+        <v>163.1906550738851</v>
       </c>
       <c r="K16" t="n">
-        <v>131.0026700764986</v>
+        <v>163.1906550738851</v>
       </c>
       <c r="L16" t="n">
-        <v>275.5286256824677</v>
+        <v>307.7166106798541</v>
       </c>
       <c r="M16" t="n">
-        <v>275.5286256824677</v>
+        <v>307.7166106798541</v>
       </c>
       <c r="N16" t="n">
-        <v>381.5177513997448</v>
+        <v>307.7166106798541</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7701116317054</v>
+        <v>351.8936825085033</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7701116317054</v>
+        <v>470.3568865385322</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317054</v>
+        <v>520.770111631706</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429514</v>
+        <v>495.225215142952</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566328</v>
+        <v>437.3496948566333</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461975</v>
+        <v>391.2689742461979</v>
       </c>
       <c r="U16" t="n">
-        <v>279.637868553606</v>
+        <v>279.6378685536063</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365263</v>
+        <v>211.9941803365266</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804729</v>
+        <v>98.69221746804746</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471248</v>
+        <v>54.47232700471256</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609898</v>
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417491</v>
+        <v>463.3662739417496</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731524</v>
+        <v>410.0798406731529</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135979</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879735</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336852</v>
+        <v>187.7621275336856</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151406</v>
+        <v>65.14969672151398</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07888360609898</v>
+        <v>32.36804939936039</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07888360609898</v>
+        <v>218.9692340248353</v>
       </c>
       <c r="K17" t="n">
-        <v>15.07888360609898</v>
+        <v>218.9692340248353</v>
       </c>
       <c r="L17" t="n">
-        <v>190.3634490602096</v>
+        <v>265.6803923638717</v>
       </c>
       <c r="M17" t="n">
-        <v>271.2145726735549</v>
+        <v>346.531515977217</v>
       </c>
       <c r="N17" t="n">
-        <v>346.531515977217</v>
+        <v>533.1327006026919</v>
       </c>
       <c r="O17" t="n">
-        <v>380.7418110539992</v>
+        <v>567.3429956794741</v>
       </c>
       <c r="P17" t="n">
         <v>567.3429956794741</v>
@@ -5549,16 +5549,16 @@
         <v>753.9441803049491</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394095</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985018</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X17" t="n">
         <v>626.4662243515947</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342393</v>
+        <v>540.7756799342392</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>418.2796618130441</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C18" t="n">
-        <v>228.8673875460078</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D18" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E18" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F18" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G18" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H18" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I18" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J18" t="n">
         <v>15.07888360609898</v>
@@ -5601,10 +5601,10 @@
         <v>170.3626975743616</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576277</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O18" t="n">
         <v>670.3253369263739</v>
@@ -5613,31 +5613,31 @@
         <v>753.9441803049491</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398752</v>
       </c>
       <c r="R18" t="n">
-        <v>617.8614934590253</v>
+        <v>747.0010596398752</v>
       </c>
       <c r="S18" t="n">
-        <v>427.4715489375735</v>
+        <v>556.6111151184234</v>
       </c>
       <c r="T18" t="n">
-        <v>427.4715489375735</v>
+        <v>556.6111151184234</v>
       </c>
       <c r="U18" t="n">
-        <v>418.2796618130441</v>
+        <v>366.2211705969716</v>
       </c>
       <c r="V18" t="n">
-        <v>418.2796618130441</v>
+        <v>175.8312260755198</v>
       </c>
       <c r="W18" t="n">
-        <v>418.2796618130441</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="X18" t="n">
-        <v>418.2796618130441</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y18" t="n">
-        <v>418.2796618130441</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417493</v>
+        <v>463.366273941749</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731523</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135979</v>
+        <v>369.352334413598</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879736</v>
+        <v>294.5776034879738</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336853</v>
+        <v>187.7621275336855</v>
       </c>
       <c r="G20" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151398</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
@@ -5750,7 +5750,7 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J20" t="n">
-        <v>201.6800682315739</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K20" t="n">
         <v>201.6800682315739</v>
@@ -5759,25 +5759,25 @@
         <v>248.3912265706103</v>
       </c>
       <c r="M20" t="n">
-        <v>336.7514711834665</v>
+        <v>434.9924111960852</v>
       </c>
       <c r="N20" t="n">
-        <v>412.0684144871287</v>
+        <v>621.59359582156</v>
       </c>
       <c r="O20" t="n">
-        <v>446.2787095639109</v>
+        <v>655.8038908983423</v>
       </c>
       <c r="P20" t="n">
-        <v>446.2787095639109</v>
+        <v>655.8038908983423</v>
       </c>
       <c r="Q20" t="n">
-        <v>632.8798941893858</v>
+        <v>655.8038908983423</v>
       </c>
       <c r="R20" t="n">
-        <v>632.8798941893858</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="S20" t="n">
-        <v>632.8798941893858</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T20" t="n">
         <v>707.1158121312012</v>
@@ -5792,10 +5792,10 @@
         <v>689.4266140985019</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515947</v>
+        <v>626.4662243515945</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342394</v>
+        <v>540.7756799342392</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>237.0816044161216</v>
+        <v>248.9356960106383</v>
       </c>
       <c r="C21" t="n">
-        <v>237.0816044161216</v>
+        <v>188.6420874846845</v>
       </c>
       <c r="D21" t="n">
-        <v>237.0816044161216</v>
+        <v>188.6420874846845</v>
       </c>
       <c r="E21" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F21" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07888360609901</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07888360609901</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07888360609901</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07888360609901</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936461</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L21" t="n">
         <v>170.3626975743616</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N21" t="n">
         <v>538.6322093831027</v>
@@ -5847,34 +5847,34 @@
         <v>670.3253369263739</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="R21" t="n">
-        <v>617.8614934590253</v>
+        <v>617.8614934590252</v>
       </c>
       <c r="S21" t="n">
-        <v>427.4715489375735</v>
+        <v>617.8614934590252</v>
       </c>
       <c r="T21" t="n">
-        <v>427.4715489375735</v>
+        <v>617.8614934590252</v>
       </c>
       <c r="U21" t="n">
-        <v>427.4715489375735</v>
+        <v>427.4715489375733</v>
       </c>
       <c r="V21" t="n">
-        <v>427.4715489375735</v>
+        <v>427.4715489375733</v>
       </c>
       <c r="W21" t="n">
-        <v>237.0816044161216</v>
+        <v>427.4715489375733</v>
       </c>
       <c r="X21" t="n">
-        <v>237.0816044161216</v>
+        <v>427.4715489375733</v>
       </c>
       <c r="Y21" t="n">
-        <v>237.0816044161216</v>
+        <v>427.4715489375733</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731528</v>
+        <v>410.0798406731526</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135981</v>
+        <v>369.3523344135979</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879739</v>
+        <v>294.5776034879736</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336853</v>
       </c>
       <c r="G23" t="n">
         <v>65.149696721514</v>
@@ -5984,34 +5984,34 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6654137389668</v>
+        <v>75.38192009637429</v>
       </c>
       <c r="M23" t="n">
-        <v>235.210646783617</v>
+        <v>156.2330437097196</v>
       </c>
       <c r="N23" t="n">
-        <v>310.5275900872791</v>
+        <v>342.8342283351945</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7378851640614</v>
+        <v>377.0445234119767</v>
       </c>
       <c r="P23" t="n">
-        <v>531.3390697895363</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="Q23" t="n">
-        <v>531.3390697895363</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="R23" t="n">
-        <v>632.8798941893858</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="S23" t="n">
         <v>632.8798941893858</v>
@@ -6020,19 +6020,19 @@
         <v>707.1158121312012</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394099</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X23" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>373.1642912620454</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C24" t="n">
-        <v>373.1642912620454</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D24" t="n">
-        <v>373.1642912620454</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E24" t="n">
-        <v>199.6010873834598</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F24" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H24" t="n">
         <v>15.07888360609898</v>
@@ -6084,34 +6084,34 @@
         <v>670.3253369263739</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9441803049491</v>
+        <v>610.9183727939512</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9441803049491</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9441803049491</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="U24" t="n">
-        <v>753.9441803049491</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="V24" t="n">
-        <v>753.9441803049491</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5542357834972</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="X24" t="n">
-        <v>563.5542357834972</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="Y24" t="n">
-        <v>373.1642912620454</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.877441161906</v>
+        <v>1020.877441161907</v>
       </c>
       <c r="C26" t="n">
-        <v>882.77898860731</v>
+        <v>882.7789886073107</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617562</v>
+        <v>757.2394630617569</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501327</v>
+        <v>597.6527128501334</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098454</v>
+        <v>406.025217609846</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116746</v>
+        <v>198.6007675116751</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026088</v>
+        <v>63.71793511026092</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468462</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K26" t="n">
         <v>375.9353445940055</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916494</v>
+        <v>633.9996519916499</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636025</v>
+        <v>926.2039246636028</v>
       </c>
       <c r="N26" t="n">
         <v>1212.874017025872</v>
@@ -6242,34 +6242,34 @@
         <v>1458.437461161262</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.840732969349</v>
+        <v>1654.84073296935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.372635436589</v>
+        <v>1777.37263543659</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.789199734231</v>
+        <v>1795.789199734232</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019535</v>
+        <v>1781.617101019536</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510105</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.515443955101</v>
+        <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503563</v>
+        <v>1627.038924503564</v>
       </c>
       <c r="W26" t="n">
         <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.601430143749</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440395</v>
+        <v>1183.098866440396</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>241.2604574908496</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C27" t="n">
-        <v>241.2604574908496</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D27" t="n">
-        <v>88.92417169562515</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E27" t="n">
-        <v>88.92417169562515</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F27" t="n">
-        <v>88.92417169562515</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G27" t="n">
-        <v>88.92417169562515</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H27" t="n">
-        <v>88.92417169562515</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I27" t="n">
-        <v>88.92417169562515</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468462</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795021</v>
+        <v>73.87380801795024</v>
       </c>
       <c r="L27" t="n">
-        <v>191.1995979629472</v>
+        <v>191.1995979629473</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8679251462134</v>
+        <v>372.8679251462135</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7643619459216</v>
+        <v>577.7643619459217</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4574894891928</v>
+        <v>709.4574894891929</v>
       </c>
       <c r="P27" t="n">
-        <v>793.076332867768</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.076332867768</v>
+        <v>786.1332122026942</v>
       </c>
       <c r="R27" t="n">
-        <v>793.076332867768</v>
+        <v>786.1332122026942</v>
       </c>
       <c r="S27" t="n">
-        <v>793.076332867768</v>
+        <v>592.6065381016384</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5783248528412</v>
+        <v>375.4640559936521</v>
       </c>
       <c r="U27" t="n">
-        <v>767.598484118781</v>
+        <v>135.8397411665323</v>
       </c>
       <c r="V27" t="n">
-        <v>524.5187660224151</v>
+        <v>108.4044971632259</v>
       </c>
       <c r="W27" t="n">
-        <v>255.1201967527064</v>
+        <v>54.65040198657679</v>
       </c>
       <c r="X27" t="n">
-        <v>251.2566764624624</v>
+        <v>50.78688169633271</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.2604574908496</v>
+        <v>40.79066272471992</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468462</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468462</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91578399468462</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91578399468462</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91578399468462</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91578399468462</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91578399468462</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91578399468462</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2297753848321</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="K28" t="n">
-        <v>128.2297753848321</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="L28" t="n">
-        <v>128.2297753848321</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="M28" t="n">
-        <v>128.2297753848321</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="N28" t="n">
-        <v>256.1827763203649</v>
+        <v>103.5381093050887</v>
       </c>
       <c r="O28" t="n">
-        <v>256.1827763203649</v>
+        <v>170.7767483796293</v>
       </c>
       <c r="P28" t="n">
-        <v>256.1827763203649</v>
+        <v>170.7767483796293</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.1827763203649</v>
+        <v>256.1827763203651</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.1390261192994</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204432</v>
+        <v>243.9668043204433</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974705</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923415</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627244</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170782</v>
+        <v>48.12252088170789</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583556</v>
+        <v>39.6059289058356</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468462</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073103</v>
+        <v>882.7789886073107</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617565</v>
+        <v>757.2394630617569</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501331</v>
+        <v>597.6527128501334</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098457</v>
+        <v>406.0252176098461</v>
       </c>
       <c r="G29" t="n">
-        <v>198.600767511675</v>
+        <v>198.6007675116755</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7179351102609</v>
+        <v>63.71793511026144</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J29" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K29" t="n">
         <v>375.9353445940055</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916496</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M29" t="n">
         <v>926.2039246636027</v>
@@ -6476,7 +6476,7 @@
         <v>1212.874017025872</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P29" t="n">
         <v>1654.84073296935</v>
@@ -6494,7 +6494,7 @@
         <v>1772.548289510106</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.515443955101</v>
+        <v>1735.515443955102</v>
       </c>
       <c r="V29" t="n">
         <v>1627.038924503563</v>
@@ -6506,7 +6506,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440395</v>
+        <v>1183.098866440396</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>385.7557745444768</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C30" t="n">
-        <v>196.3435002774405</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D30" t="n">
-        <v>196.3435002774405</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E30" t="n">
-        <v>196.3435002774405</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K30" t="n">
         <v>73.87380801795024</v>
@@ -6564,28 +6564,28 @@
         <v>793.0763328677681</v>
       </c>
       <c r="R30" t="n">
-        <v>793.0763328677681</v>
+        <v>766.267512298538</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677681</v>
+        <v>766.267512298538</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528413</v>
+        <v>549.1250301905517</v>
       </c>
       <c r="U30" t="n">
-        <v>659.3407059132242</v>
+        <v>525.1451894564915</v>
       </c>
       <c r="V30" t="n">
-        <v>631.9054619099178</v>
+        <v>497.7099454531852</v>
       </c>
       <c r="W30" t="n">
-        <v>578.1513667332687</v>
+        <v>443.9558502765361</v>
       </c>
       <c r="X30" t="n">
-        <v>574.2878464430246</v>
+        <v>224.4478558932325</v>
       </c>
       <c r="Y30" t="n">
-        <v>564.2916274714119</v>
+        <v>214.4516369216198</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91578399468464</v>
+        <v>84.06366685298832</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91578399468464</v>
+        <v>84.06366685298832</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91578399468464</v>
+        <v>84.06366685298832</v>
       </c>
       <c r="L31" t="n">
-        <v>71.14504524338497</v>
+        <v>263.5824253065196</v>
       </c>
       <c r="M31" t="n">
-        <v>71.14504524338497</v>
+        <v>263.5824253065196</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1390261192992</v>
+        <v>263.5824253065196</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1390261192992</v>
+        <v>263.5824253065196</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1390261192992</v>
+        <v>263.5824253065196</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192992</v>
+        <v>263.5824253065196</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204432</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974702</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V31" t="n">
         <v>125.7211852627243</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170784</v>
+        <v>48.12252088170779</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583558</v>
+        <v>39.60592890583555</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.983187784817</v>
+        <v>876.9831877848175</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505971</v>
+        <v>752.3627374505976</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503077</v>
+        <v>593.6950624503081</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213542</v>
+        <v>402.9866424213546</v>
       </c>
       <c r="G32" t="n">
         <v>196.4812675345171</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443695</v>
+        <v>62.51751034443696</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J32" t="n">
         <v>171.8693579078084</v>
@@ -6704,46 +6704,46 @@
         <v>377.4555662687723</v>
       </c>
       <c r="L32" t="n">
-        <v>614.5274605793802</v>
+        <v>614.5274605793807</v>
       </c>
       <c r="M32" t="n">
-        <v>907.6325188659615</v>
+        <v>907.632518865962</v>
       </c>
       <c r="N32" t="n">
         <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1441.667626592878</v>
+        <v>1441.667626592879</v>
       </c>
       <c r="P32" t="n">
         <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1762.404372097462</v>
+        <v>1762.404372097463</v>
       </c>
       <c r="R32" t="n">
         <v>1781.721722009733</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.46869850637</v>
+        <v>1768.468698506371</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208274</v>
+        <v>1760.318962208275</v>
       </c>
       <c r="U32" t="n">
-        <v>1724.205191864604</v>
+        <v>1724.205191864605</v>
       </c>
       <c r="V32" t="n">
         <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508827</v>
+        <v>1491.901737508828</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687255</v>
       </c>
       <c r="Y32" t="n">
-        <v>1175.464915195234</v>
+        <v>1175.464915195235</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>346.6616594068588</v>
+        <v>325.1362712401651</v>
       </c>
       <c r="C33" t="n">
-        <v>346.6616594068588</v>
+        <v>135.7239969731288</v>
       </c>
       <c r="D33" t="n">
-        <v>185.8815431678905</v>
+        <v>135.7239969731288</v>
       </c>
       <c r="E33" t="n">
-        <v>185.8815431678905</v>
+        <v>135.7239969731288</v>
       </c>
       <c r="F33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="G33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K33" t="n">
         <v>73.59245846346025</v>
@@ -6795,34 +6795,34 @@
         <v>709.1761399347029</v>
       </c>
       <c r="P33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.794983313278</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.794983313278</v>
       </c>
       <c r="R33" t="n">
-        <v>792.7949833132781</v>
+        <v>656.7122964673541</v>
       </c>
       <c r="S33" t="n">
-        <v>792.7949833132781</v>
+        <v>656.7122964673541</v>
       </c>
       <c r="T33" t="n">
-        <v>792.2160505096853</v>
+        <v>656.1333636637613</v>
       </c>
       <c r="U33" t="n">
-        <v>552.5917356825654</v>
+        <v>416.5090488366415</v>
       </c>
       <c r="V33" t="n">
-        <v>526.075566890593</v>
+        <v>389.9928800446691</v>
       </c>
       <c r="W33" t="n">
-        <v>358.6832482460477</v>
+        <v>337.157860079354</v>
       </c>
       <c r="X33" t="n">
-        <v>355.7388031671376</v>
+        <v>334.2134150004438</v>
       </c>
       <c r="Y33" t="n">
-        <v>346.6616594068588</v>
+        <v>325.1362712401651</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="C34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="D34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="E34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="F34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="G34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="H34" t="n">
-        <v>35.63443444019465</v>
+        <v>79.00460601731194</v>
       </c>
       <c r="I34" t="n">
-        <v>35.63443444019465</v>
+        <v>79.00460601731194</v>
       </c>
       <c r="J34" t="n">
-        <v>35.63443444019465</v>
+        <v>79.00460601731194</v>
       </c>
       <c r="K34" t="n">
-        <v>68.14757060374922</v>
+        <v>79.00460601731194</v>
       </c>
       <c r="L34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="M34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="N34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="O34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="P34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="Q34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854715</v>
       </c>
       <c r="R34" t="n">
         <v>259.4241500854715</v>
@@ -6898,10 +6898,10 @@
         <v>46.00302090454993</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001163</v>
+        <v>38.40550414001164</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379708</v>
+        <v>623.0203756379709</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837518</v>
+        <v>544.0845948837517</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385746</v>
+        <v>477.7077411385745</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273281</v>
+        <v>377.2836627273277</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874175</v>
+        <v>244.8188392874169</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962304</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57334671175859</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57334671175859</v>
+        <v>32.30280128558738</v>
       </c>
       <c r="K35" t="n">
-        <v>51.57334671175859</v>
+        <v>32.30280128558738</v>
       </c>
       <c r="L35" t="n">
-        <v>98.284505050795</v>
+        <v>79.01395962462379</v>
       </c>
       <c r="M35" t="n">
-        <v>356.1411473595425</v>
+        <v>336.8706019333714</v>
       </c>
       <c r="N35" t="n">
-        <v>431.4580906632046</v>
+        <v>412.1875452370335</v>
       </c>
       <c r="O35" t="n">
-        <v>689.3147329719521</v>
+        <v>670.0441875457811</v>
       </c>
       <c r="P35" t="n">
-        <v>943.7033394115884</v>
+        <v>670.0441875457811</v>
       </c>
       <c r="Q35" t="n">
-        <v>948.6527662768501</v>
+        <v>850.5614246445706</v>
       </c>
       <c r="R35" t="n">
-        <v>948.6527662768501</v>
+        <v>926.9633235737615</v>
       </c>
       <c r="S35" t="n">
-        <v>992.7480269581258</v>
+        <v>971.0585842550371</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.531171778121</v>
+        <v>992.5311717781213</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515907</v>
+        <v>926.0287582515909</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190612</v>
+        <v>837.4190210190613</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160834</v>
+        <v>726.0791291160835</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.84528808952618</v>
+        <v>94.82362157205364</v>
       </c>
       <c r="C36" t="n">
-        <v>73.84528808952618</v>
+        <v>94.82362157205364</v>
       </c>
       <c r="D36" t="n">
-        <v>73.84528808952618</v>
+        <v>94.82362157205364</v>
       </c>
       <c r="E36" t="n">
-        <v>73.84528808952618</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84528808952618</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G36" t="n">
-        <v>73.84528808952618</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H36" t="n">
-        <v>73.84528808952618</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84528808952618</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185125</v>
+        <v>58.79492441185126</v>
       </c>
       <c r="L36" t="n">
         <v>176.1207143568483</v>
@@ -7035,31 +7035,31 @@
         <v>777.9974492616691</v>
       </c>
       <c r="Q36" t="n">
-        <v>777.9974492616691</v>
+        <v>771.0543285965952</v>
       </c>
       <c r="R36" t="n">
-        <v>721.1015521774996</v>
+        <v>771.0543285965952</v>
       </c>
       <c r="S36" t="n">
-        <v>721.1015521774996</v>
+        <v>577.5276544955394</v>
       </c>
       <c r="T36" t="n">
-        <v>721.1015521774996</v>
+        <v>577.5276544955394</v>
       </c>
       <c r="U36" t="n">
-        <v>721.1015521774996</v>
+        <v>337.9033396684196</v>
       </c>
       <c r="V36" t="n">
-        <v>478.0218340811336</v>
+        <v>94.82362157205364</v>
       </c>
       <c r="W36" t="n">
-        <v>478.0218340811336</v>
+        <v>94.82362157205364</v>
       </c>
       <c r="X36" t="n">
-        <v>478.0218340811336</v>
+        <v>94.82362157205364</v>
       </c>
       <c r="Y36" t="n">
-        <v>252.3811410164613</v>
+        <v>94.82362157205364</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03802837397765</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03802837397765</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03802837397765</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397765</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922542</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922542</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379706</v>
+        <v>623.0203756379711</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837516</v>
+        <v>544.0845948837519</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7077411385744</v>
+        <v>477.7077411385748</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273276</v>
+        <v>377.283662727328</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874168</v>
+        <v>244.8188392874172</v>
       </c>
       <c r="G38" t="n">
         <v>96.55706098962315</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57334671175848</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J38" t="n">
-        <v>72.54227303417326</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K38" t="n">
-        <v>72.54227303417326</v>
+        <v>278.6935426973333</v>
       </c>
       <c r="L38" t="n">
-        <v>330.3989153429208</v>
+        <v>325.4047010363697</v>
       </c>
       <c r="M38" t="n">
-        <v>411.2500389562661</v>
+        <v>406.255824649715</v>
       </c>
       <c r="N38" t="n">
-        <v>669.1066812650135</v>
+        <v>664.1124669584626</v>
       </c>
       <c r="O38" t="n">
-        <v>926.963323573761</v>
+        <v>698.3227620352449</v>
       </c>
       <c r="P38" t="n">
-        <v>926.963323573761</v>
+        <v>698.3227620352449</v>
       </c>
       <c r="Q38" t="n">
-        <v>926.963323573761</v>
+        <v>872.2508673476601</v>
       </c>
       <c r="R38" t="n">
-        <v>926.963323573761</v>
+        <v>948.652766276851</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0585842550366</v>
+        <v>992.7480269581266</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726193</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781208</v>
+        <v>992.5311717781216</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515905</v>
+        <v>926.0287582515912</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190609</v>
+        <v>837.4190210190616</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160831</v>
+        <v>726.0791291160838</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>181.6170166275539</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6170166275539</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185125</v>
+        <v>58.79492441185126</v>
       </c>
       <c r="L39" t="n">
         <v>176.1207143568483</v>
@@ -7278,25 +7278,25 @@
         <v>777.9974492616691</v>
       </c>
       <c r="S39" t="n">
-        <v>584.4707751606134</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="T39" t="n">
-        <v>584.4707751606134</v>
+        <v>560.8549671536828</v>
       </c>
       <c r="U39" t="n">
-        <v>344.8464603334935</v>
+        <v>321.2306523265629</v>
       </c>
       <c r="V39" t="n">
-        <v>344.8464603334935</v>
+        <v>321.2306523265629</v>
       </c>
       <c r="W39" t="n">
-        <v>344.8464603334935</v>
+        <v>58.13847570300652</v>
       </c>
       <c r="X39" t="n">
-        <v>344.8464603334935</v>
+        <v>58.13847570300652</v>
       </c>
       <c r="Y39" t="n">
-        <v>344.8464603334935</v>
+        <v>58.13847570300652</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.08146646549718</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="M40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="N40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="O40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="P40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U40" t="n">
-        <v>20.83690038858565</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V40" t="n">
-        <v>47.51745904613707</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W40" t="n">
-        <v>29.08146646549718</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X40" t="n">
-        <v>29.08146646549718</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.08146646549718</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>610.3783222853722</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893251</v>
+        <v>478.5937231893249</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646138</v>
+        <v>314.7683790646139</v>
       </c>
       <c r="G41" t="n">
         <v>135.1460800820201</v>
@@ -7409,31 +7409,31 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06539879618224</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>259.999709850894</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="L41" t="n">
-        <v>306.7108681899304</v>
+        <v>475.9616206635642</v>
       </c>
       <c r="M41" t="n">
-        <v>626.1640291702597</v>
+        <v>795.4147816438935</v>
       </c>
       <c r="N41" t="n">
-        <v>829.4206341367772</v>
+        <v>870.7317249475557</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.232966580543</v>
+        <v>965.8109901630297</v>
       </c>
       <c r="P41" t="n">
-        <v>1325.885126697007</v>
+        <v>1189.463150279493</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.885126697007</v>
+        <v>1339.24394105511</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.550579303025</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="S41" t="n">
         <v>1384.909393661128</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>201.575745738968</v>
+        <v>217.4776730632185</v>
       </c>
       <c r="C42" t="n">
-        <v>201.575745738968</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
-        <v>201.575745738968</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>201.575745738968</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
-        <v>41.1480294562121</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G42" t="n">
-        <v>41.1480294562121</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H42" t="n">
         <v>28.06539879618224</v>
@@ -7509,31 +7509,31 @@
         <v>785.2259476692657</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2259476692657</v>
+        <v>778.2828270041917</v>
       </c>
       <c r="R42" t="n">
-        <v>649.1432608233418</v>
+        <v>778.2828270041917</v>
       </c>
       <c r="S42" t="n">
-        <v>649.1432608233418</v>
+        <v>778.2828270041917</v>
       </c>
       <c r="T42" t="n">
-        <v>649.1432608233418</v>
+        <v>778.2828270041917</v>
       </c>
       <c r="U42" t="n">
-        <v>649.1432608233418</v>
+        <v>778.2828270041917</v>
       </c>
       <c r="V42" t="n">
-        <v>406.0635427269759</v>
+        <v>535.2031089078258</v>
       </c>
       <c r="W42" t="n">
-        <v>380.1115986659031</v>
+        <v>509.251164846753</v>
       </c>
       <c r="X42" t="n">
-        <v>380.1115986659031</v>
+        <v>289.7431704634494</v>
       </c>
       <c r="Y42" t="n">
-        <v>380.1115986659031</v>
+        <v>289.7431704634494</v>
       </c>
     </row>
     <row r="43">
@@ -7561,31 +7561,31 @@
         <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>102.5010377446798</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M43" t="n">
-        <v>102.5010377446798</v>
+        <v>130.125806765216</v>
       </c>
       <c r="N43" t="n">
-        <v>102.5010377446798</v>
+        <v>130.125806765216</v>
       </c>
       <c r="O43" t="n">
-        <v>102.5010377446798</v>
+        <v>130.125806765216</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5010377446798</v>
+        <v>130.125806765216</v>
       </c>
       <c r="Q43" t="n">
         <v>130.125806765216</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543693</v>
+        <v>818.4119981543702</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153497</v>
+        <v>708.1156967153509</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3783222853721</v>
+        <v>610.3783222853731</v>
       </c>
       <c r="E44" t="n">
-        <v>478.5937231893249</v>
+        <v>478.5937231893255</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646138</v>
+        <v>314.7683790646144</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
@@ -7649,22 +7649,22 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K44" t="n">
-        <v>238.1585807381329</v>
+        <v>259.999709850894</v>
       </c>
       <c r="L44" t="n">
-        <v>523.4717764441533</v>
+        <v>306.7108681899305</v>
       </c>
       <c r="M44" t="n">
-        <v>604.3229000574986</v>
+        <v>626.1640291702597</v>
       </c>
       <c r="N44" t="n">
-        <v>918.2418807281447</v>
+        <v>940.0830098409058</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4521758049269</v>
+        <v>1102.232966580543</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.10433592139</v>
+        <v>1325.885126697007</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.885126697007</v>
@@ -7682,16 +7682,16 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.50194282239</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X44" t="n">
         <v>1095.531684905061</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172822</v>
+        <v>952.8312723172832</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>330.348404807548</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C45" t="n">
-        <v>208.0796904339941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D45" t="n">
-        <v>208.0796904339941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E45" t="n">
-        <v>208.0796904339941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F45" t="n">
-        <v>208.0796904339941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G45" t="n">
-        <v>208.0796904339941</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H45" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J45" t="n">
         <v>28.06539879618224</v>
@@ -7746,31 +7746,31 @@
         <v>785.2259476692657</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.2828270041917</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="R45" t="n">
-        <v>778.2828270041917</v>
+        <v>649.1432608233418</v>
       </c>
       <c r="S45" t="n">
-        <v>778.2828270041917</v>
+        <v>455.6165867222861</v>
       </c>
       <c r="T45" t="n">
-        <v>778.2828270041917</v>
+        <v>238.4741046142998</v>
       </c>
       <c r="U45" t="n">
-        <v>778.2828270041917</v>
+        <v>54.01734285725504</v>
       </c>
       <c r="V45" t="n">
-        <v>778.2828270041917</v>
+        <v>54.01734285725504</v>
       </c>
       <c r="W45" t="n">
-        <v>508.8842577344831</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X45" t="n">
-        <v>508.8842577344831</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.8842577344831</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="46">
@@ -7783,64 +7783,64 @@
         <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="P46" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00015067566332</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86191206162249</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W46" t="n">
         <v>28.06539879618224</v>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
         <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.6116624382006</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.6166327065838</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.459431452054986</v>
+        <v>195.9454765282923</v>
       </c>
       <c r="C11" t="n">
         <v>172.0637335316378</v>
@@ -23264,10 +23264,10 @@
         <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
-        <v>85.44323210492244</v>
+        <v>193.3371482120951</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0574857904724</v>
+        <v>36.57144071423517</v>
       </c>
       <c r="G11" t="n">
         <v>240.6964710997769</v>
@@ -23306,16 +23306,16 @@
         <v>16.74367530294975</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.37664323013689</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204223</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7380197596109</v>
+        <v>13.15185412741974</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926862</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120951</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F14" t="n">
-        <v>36.57144071423514</v>
+        <v>225.0574857904725</v>
       </c>
       <c r="G14" t="n">
-        <v>52.21042602353961</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H14" t="n">
-        <v>59.69960113966189</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.87039510700851</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692372</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7380197596109</v>
+        <v>29.89552943037016</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762258</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1438035689088</v>
+        <v>15.65775849267163</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771327.5366796909</v>
+        <v>771327.5366796911</v>
       </c>
     </row>
     <row r="6">
@@ -26314,7 +26314,7 @@
         <v>661448.9963823446</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823447</v>
+        <v>661448.9963823446</v>
       </c>
       <c r="D2" t="n">
         <v>661849.9486908917</v>
@@ -26323,28 +26323,28 @@
         <v>569792.0906110855</v>
       </c>
       <c r="F2" t="n">
-        <v>569792.090611086</v>
+        <v>569792.0906110853</v>
       </c>
       <c r="G2" t="n">
-        <v>662788.9116439022</v>
+        <v>662788.9116439027</v>
       </c>
       <c r="H2" t="n">
         <v>662788.9116439029</v>
       </c>
       <c r="I2" t="n">
-        <v>662788.9116439031</v>
+        <v>662788.911643903</v>
       </c>
       <c r="J2" t="n">
-        <v>662788.9116439027</v>
+        <v>662788.9116439029</v>
       </c>
       <c r="K2" t="n">
+        <v>662788.9116439028</v>
+      </c>
+      <c r="L2" t="n">
+        <v>662788.9116439028</v>
+      </c>
+      <c r="M2" t="n">
         <v>662788.9116439025</v>
-      </c>
-      <c r="L2" t="n">
-        <v>662788.9116439027</v>
-      </c>
-      <c r="M2" t="n">
-        <v>662788.9116439029</v>
       </c>
       <c r="N2" t="n">
         <v>662788.9116439028</v>
@@ -26353,7 +26353,7 @@
         <v>662788.9116439025</v>
       </c>
       <c r="P2" t="n">
-        <v>662788.9116439025</v>
+        <v>662788.9116439021</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658157</v>
+        <v>95448.13167658169</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710103</v>
+        <v>143490.4163710104</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395808</v>
+        <v>96176.03924395816</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852192</v>
+        <v>46128.92849852178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134122</v>
+        <v>72249.07655134119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>278809.5434581144</v>
       </c>
       <c r="F4" t="n">
-        <v>278809.5434581144</v>
+        <v>278809.5434581143</v>
       </c>
       <c r="G4" t="n">
-        <v>349424.6097629184</v>
+        <v>349424.6097629185</v>
       </c>
       <c r="H4" t="n">
         <v>349424.6097629185</v>
       </c>
       <c r="I4" t="n">
-        <v>349424.6097629185</v>
+        <v>349424.6097629184</v>
       </c>
       <c r="J4" t="n">
-        <v>350153.975640944</v>
+        <v>350153.9756409439</v>
       </c>
       <c r="K4" t="n">
         <v>350153.975640944</v>
@@ -26451,13 +26451,13 @@
         <v>349329.303575735</v>
       </c>
       <c r="N4" t="n">
-        <v>349329.303575735</v>
+        <v>349329.3035757351</v>
       </c>
       <c r="O4" t="n">
         <v>349716.3329031964</v>
       </c>
       <c r="P4" t="n">
-        <v>349716.3329031964</v>
+        <v>349716.3329031965</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>28641.35152034391</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="G5" t="n">
         <v>38671.63774774208</v>
@@ -26491,19 +26491,19 @@
         <v>38671.63774774208</v>
       </c>
       <c r="J5" t="n">
-        <v>47448.92101020606</v>
+        <v>47448.92101020607</v>
       </c>
       <c r="K5" t="n">
-        <v>47448.92101020607</v>
+        <v>47448.92101020608</v>
       </c>
       <c r="L5" t="n">
-        <v>47311.58842539589</v>
+        <v>47311.58842539591</v>
       </c>
       <c r="M5" t="n">
         <v>40912.97865860086</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860084</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="O5" t="n">
         <v>43796.55431105827</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234606.7826699894</v>
+        <v>234602.3162857842</v>
       </c>
       <c r="C6" t="n">
-        <v>234606.7826699895</v>
+        <v>234602.3162857842</v>
       </c>
       <c r="D6" t="n">
-        <v>233980.5889126938</v>
+        <v>233977.4590361838</v>
       </c>
       <c r="E6" t="n">
-        <v>-16668.9476347526</v>
+        <v>-16978.93703819532</v>
       </c>
       <c r="F6" t="n">
-        <v>262341.1956326277</v>
+        <v>262031.2062291843</v>
       </c>
       <c r="G6" t="n">
-        <v>179244.5324566601</v>
+        <v>179244.5324566604</v>
       </c>
       <c r="H6" t="n">
         <v>274692.6641332423</v>
       </c>
       <c r="I6" t="n">
-        <v>274692.6641332426</v>
+        <v>274692.6641332425</v>
       </c>
       <c r="J6" t="n">
-        <v>121695.5986217423</v>
+        <v>121695.5986217425</v>
       </c>
       <c r="K6" t="n">
-        <v>265186.0149927525</v>
+        <v>265186.0149927527</v>
       </c>
       <c r="L6" t="n">
-        <v>169163.5666410249</v>
+        <v>169163.5666410248</v>
       </c>
       <c r="M6" t="n">
-        <v>226417.7009110451</v>
+        <v>226417.7009110449</v>
       </c>
       <c r="N6" t="n">
-        <v>272546.6294095671</v>
+        <v>272546.6294095669</v>
       </c>
       <c r="O6" t="n">
         <v>197026.9478783066</v>
       </c>
       <c r="P6" t="n">
-        <v>269276.0244296479</v>
+        <v>269276.0244296474</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H2" t="n">
         <v>297.4519284452681</v>
@@ -26716,7 +26716,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="M2" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="N2" t="n">
         <v>272.0590744345018</v>
@@ -26811,19 +26811,19 @@
         <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9472999335578</v>
+        <v>448.9472999335579</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9472999335579</v>
+        <v>448.947299933558</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024331</v>
+        <v>445.4304305024332</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="O4" t="n">
         <v>350.8174849522779</v>
@@ -26920,25 +26920,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.310164595727</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640196</v>
+        <v>94.17786475640193</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.2200490549476</v>
+        <v>120.2200490549477</v>
       </c>
       <c r="M2" t="n">
-        <v>57.6611606231524</v>
+        <v>57.66116062315223</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573205</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495725</v>
+        <v>90.35623009495714</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.310164595727</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640196</v>
+        <v>94.17786475640193</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>133.4551793114576</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27916,7 +27916,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>359.6050659069535</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
         <v>382.2855674184499</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.2336249665409</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>156.0746564816438</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27944,7 +27944,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>145.8645598001571</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.13081250099125</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -27986,7 +27986,7 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>233.7255167710576</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -27998,7 +27998,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>219.8674167029008</v>
       </c>
     </row>
     <row r="10">
@@ -28111,7 +28111,7 @@
         <v>178.1417638495411</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78688000567911</v>
+        <v>76.78688000567912</v>
       </c>
       <c r="K11" t="n">
         <v>178.1417638495411</v>
@@ -28120,19 +28120,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>59.98832947970993</v>
       </c>
       <c r="N11" t="n">
         <v>112.4083245674877</v>
       </c>
       <c r="O11" t="n">
-        <v>134.605874268444</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.10088611163703</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1417638495411</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R11" t="n">
         <v>178.1417638495411</v>
@@ -28172,7 +28172,7 @@
         <v>178.1417638495411</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,13 +28211,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1417638495411</v>
+        <v>3.105362283807921</v>
       </c>
       <c r="T12" t="n">
         <v>178.1417638495411</v>
@@ -28226,13 +28226,13 @@
         <v>178.1417638495411</v>
       </c>
       <c r="V12" t="n">
+        <v>82.72371861035026</v>
+      </c>
+      <c r="W12" t="n">
+        <v>78.21853850077432</v>
+      </c>
+      <c r="X12" t="n">
         <v>178.1417638495411</v>
-      </c>
-      <c r="W12" t="n">
-        <v>178.1417638495411</v>
-      </c>
-      <c r="X12" t="n">
-        <v>94.78457729147041</v>
       </c>
       <c r="Y12" t="n">
         <v>178.1417638495411</v>
@@ -28260,37 +28260,37 @@
         <v>178.1417638495411</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2161640498181</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H13" t="n">
+        <v>165.824644867158</v>
+      </c>
+      <c r="I13" t="n">
         <v>178.1417638495411</v>
       </c>
-      <c r="I13" t="n">
-        <v>164.8538042427314</v>
-      </c>
       <c r="J13" t="n">
-        <v>120.241573402485</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K13" t="n">
         <v>67.0332105846294</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1417638495411</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M13" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52441230575096</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1417638495411</v>
+        <v>146.636044767013</v>
       </c>
       <c r="P13" t="n">
         <v>178.1417638495411</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1417638495411</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.1417638495411</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78688000567911</v>
+        <v>76.78688000567912</v>
       </c>
       <c r="K14" t="n">
-        <v>6.73507708310327</v>
+        <v>6.735077083103278</v>
       </c>
       <c r="L14" t="n">
-        <v>124.5767727995522</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>112.4083245674877</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1417638495411</v>
+        <v>25.88019882820461</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71843090037106</v>
+        <v>178.141763849541</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="15">
@@ -28406,10 +28406,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1417638495411</v>
+        <v>59.98594266277321</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28427,7 +28427,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423154</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R15" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U15" t="n">
-        <v>48.74202660261133</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W15" t="n">
         <v>78.21853850077432</v>
       </c>
       <c r="X15" t="n">
-        <v>173.4568876248766</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.89824105778834</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.141763849541</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H16" t="n">
-        <v>165.824644867158</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1417638495411</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K16" t="n">
         <v>67.0332105846294</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="M16" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N16" t="n">
-        <v>123.5841352524955</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1417638495411</v>
+        <v>82.10611899771136</v>
       </c>
       <c r="P16" t="n">
-        <v>58.48196179900678</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2193142604766</v>
+        <v>178.141763849541</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="17">
@@ -28561,52 +28561,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I17" t="n">
-        <v>241.0121589565495</v>
+        <v>258.4759627881267</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78688000567911</v>
+        <v>265.2729250819164</v>
       </c>
       <c r="K17" t="n">
-        <v>6.73507708310327</v>
+        <v>6.735077083103278</v>
       </c>
       <c r="L17" t="n">
-        <v>129.8721283990648</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163704</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2044759766083</v>
+        <v>278.2044759766084</v>
       </c>
       <c r="R17" t="n">
         <v>194.8854391524908</v>
@@ -28621,16 +28621,16 @@
         <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.451928445268</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="18">
@@ -28643,10 +28643,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28664,7 +28664,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
         <v>3.105362283807921</v>
@@ -28697,13 +28697,13 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
-        <v>228.1281034255645</v>
+        <v>48.74202660261133</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916497</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>107.559764532285</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28749,13 +28749,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L19" t="n">
-        <v>32.1559501061379</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M19" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O19" t="n">
         <v>37.48281412028791</v>
@@ -28822,37 +28822,37 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567912</v>
       </c>
       <c r="K20" t="n">
-        <v>6.73507708310327</v>
+        <v>195.2211221593406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>7.584970706576712</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.10088611163703</v>
+        <v>15.10088611163704</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8854391524908</v>
+        <v>246.7156626200251</v>
       </c>
       <c r="S20" t="n">
         <v>227.518407079678</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4519284452681</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
         <v>297.4519284452681</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>127.8274790836717</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>100.7895158782962</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H21" t="n">
         <v>125.7358448975026</v>
@@ -28901,7 +28901,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423154</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.105362283807924</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T21" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261134</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.21853850077432</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28986,13 +28986,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L22" t="n">
-        <v>32.1559501061379</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M22" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O22" t="n">
         <v>37.48281412028791</v>
@@ -29056,22 +29056,22 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78688000567911</v>
+        <v>76.78688000567912</v>
       </c>
       <c r="K23" t="n">
-        <v>6.73507708310327</v>
+        <v>6.735077083103278</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>13.72916984973625</v>
       </c>
       <c r="M23" t="n">
-        <v>37.06475700131803</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29083,10 +29083,10 @@
         <v>89.71843090037106</v>
       </c>
       <c r="R23" t="n">
+        <v>194.8854391524908</v>
+      </c>
+      <c r="S23" t="n">
         <v>297.4519284452681</v>
-      </c>
-      <c r="S23" t="n">
-        <v>227.518407079678</v>
       </c>
       <c r="T23" t="n">
         <v>297.4519284452681</v>
@@ -29123,22 +29123,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>101.8823022778437</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I24" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5914073600452</v>
+        <v>167.1684482927834</v>
       </c>
       <c r="T24" t="n">
         <v>214.9710572869065</v>
@@ -29174,16 +29174,16 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916497</v>
       </c>
       <c r="W24" t="n">
-        <v>78.21853850077429</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.82686936323333</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.89824105778831</v>
+        <v>34.89824105778834</v>
       </c>
     </row>
     <row r="25">
@@ -29223,13 +29223,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L25" t="n">
-        <v>32.1559501061379</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M25" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O25" t="n">
         <v>37.48281412028791</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>171.9243644549308</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>8.359392139306351</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29375,7 +29375,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,25 +29396,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="U27" t="n">
+      <c r="W27" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.488029352129</v>
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.488029352129</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29454,28 +29454,28 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
-        <v>213.488029352129</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
         <v>67.0332105846294</v>
       </c>
       <c r="L28" t="n">
-        <v>32.1559501061379</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M28" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N28" t="n">
-        <v>145.7698677961881</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O28" t="n">
-        <v>37.48281412028791</v>
+        <v>105.4006313672986</v>
       </c>
       <c r="P28" t="n">
         <v>58.48196179900678</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2193142604766</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R28" t="n">
         <v>213.488029352129</v>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7446376404189</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,19 +29633,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423154</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7218599774646</v>
+        <v>108.1811276139268</v>
       </c>
       <c r="S30" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="U30" t="n">
-        <v>106.3128289286276</v>
       </c>
       <c r="V30" t="n">
         <v>213.488029352129</v>
@@ -29654,7 +29654,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="X30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>213.488029352129</v>
@@ -29688,7 +29688,7 @@
         <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8538042427314</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J31" t="n">
         <v>120.241573402485</v>
@@ -29697,13 +29697,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L31" t="n">
-        <v>67.74106247856247</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M31" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N31" t="n">
-        <v>213.488029352129</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O31" t="n">
         <v>37.48281412028791</v>
@@ -29715,7 +29715,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4312113734075</v>
+        <v>206.013636436821</v>
       </c>
       <c r="S31" t="n">
         <v>213.488029352129</v>
@@ -29776,7 +29776,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="L32" t="n">
-        <v>192.2835716884561</v>
+        <v>192.2835716884565</v>
       </c>
       <c r="M32" t="n">
         <v>214.3979138113496</v>
@@ -29828,19 +29828,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>59.73477221232358</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
         <v>125.7358448975026</v>
@@ -29849,7 +29849,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423154</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5914073600452</v>
@@ -29888,7 +29888,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>100.9861881189117</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113496</v>
@@ -29922,7 +29922,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H34" t="n">
-        <v>165.824644867158</v>
+        <v>209.6328989854582</v>
       </c>
       <c r="I34" t="n">
         <v>164.8538042427314</v>
@@ -29931,7 +29931,7 @@
         <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
-        <v>99.87476226498754</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L34" t="n">
         <v>214.3979138113496</v>
@@ -29940,7 +29940,7 @@
         <v>25.22122397250158</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O34" t="n">
         <v>37.48281412028791</v>
@@ -29952,7 +29952,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3979138113496</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S34" t="n">
         <v>214.3979138113496</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="C35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="D35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="E35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="F35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="G35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="H35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
-        <v>272.059074434502</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78688000567911</v>
+        <v>88.36859808345864</v>
       </c>
       <c r="K35" t="n">
-        <v>6.73507708310327</v>
+        <v>6.735077083103278</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.793453227679</v>
+        <v>178.7934532276791</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.9054012444093</v>
+        <v>225.9054012444095</v>
       </c>
       <c r="P35" t="n">
-        <v>272.059074434502</v>
+        <v>15.10088611163704</v>
       </c>
       <c r="Q35" t="n">
-        <v>94.71785197639295</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="R35" t="n">
-        <v>194.8854391524908</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="S35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="T35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505464515833</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="W35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="X35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,7 +30071,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>98.58071786816637</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.39492186413679</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30162,7 +30162,7 @@
         <v>165.824644867158</v>
       </c>
       <c r="I37" t="n">
-        <v>200.4104991774708</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J37" t="n">
         <v>120.241573402485</v>
@@ -30171,13 +30171,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L37" t="n">
-        <v>32.1559501061379</v>
+        <v>67.71264504087753</v>
       </c>
       <c r="M37" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O37" t="n">
         <v>37.48281412028791</v>
@@ -30198,13 +30198,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U37" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.059074434502</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30241,34 +30241,34 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
+        <v>241.0121589565495</v>
+      </c>
+      <c r="J38" t="n">
+        <v>76.78688000567912</v>
+      </c>
+      <c r="K38" t="n">
+        <v>267.1963319404241</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>184.3835343485712</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>15.10088611163704</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>265.4033857613966</v>
+      </c>
+      <c r="R38" t="n">
         <v>272.0590744345018</v>
-      </c>
-      <c r="J38" t="n">
-        <v>97.96761366468394</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6.73507708310327</v>
-      </c>
-      <c r="L38" t="n">
-        <v>213.2782666360718</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>184.3835343485711</v>
-      </c>
-      <c r="O38" t="n">
-        <v>225.9054012444093</v>
-      </c>
-      <c r="P38" t="n">
-        <v>15.10088611163703</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>89.71843090037106</v>
-      </c>
-      <c r="R38" t="n">
-        <v>194.8854391524908</v>
       </c>
       <c r="S38" t="n">
         <v>272.0590744345018</v>
@@ -30277,7 +30277,7 @@
         <v>272.0590744345018</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
         <v>272.0590744345018</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.15334512878556</v>
+        <v>139.8219348363891</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30323,7 +30323,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,16 +30344,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423154</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243328719690794</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30381,7 +30381,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>175.06381665666</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30408,13 +30408,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L40" t="n">
-        <v>32.1559501061379</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M40" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O40" t="n">
         <v>37.48281412028791</v>
@@ -30423,7 +30423,7 @@
         <v>58.48196179900678</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.2193142604766</v>
+        <v>162.7760091952162</v>
       </c>
       <c r="R40" t="n">
         <v>203.4312113734075</v>
@@ -30438,7 +30438,7 @@
         <v>272.0590744345018</v>
       </c>
       <c r="V40" t="n">
-        <v>272.0590744345018</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>272.0590744345018</v>
@@ -30481,34 +30481,34 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78688000567911</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K41" t="n">
+        <v>6.735077083103278</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="N41" t="n">
-        <v>129.2319814776316</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>241.0121589565495</v>
+        <v>61.4838082209008</v>
       </c>
       <c r="P41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.71843090037106</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="R41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="S41" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T41" t="n">
         <v>241.0121589565495</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>105.2076519714372</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30548,19 +30548,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
-        <v>112.784040544073</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393112</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423154</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
         <v>191.5914073600452</v>
@@ -30602,7 +30602,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30633,7 +30633,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H43" t="n">
-        <v>241.0121589565495</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I43" t="n">
         <v>164.8538042427314</v>
@@ -30645,13 +30645,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L43" t="n">
-        <v>32.1559501061379</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250158</v>
+        <v>128.3125451533438</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O43" t="n">
         <v>37.48281412028791</v>
@@ -30660,7 +30660,7 @@
         <v>58.48196179900678</v>
       </c>
       <c r="Q43" t="n">
-        <v>155.1231213519273</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
         <v>203.4312113734075</v>
@@ -30718,28 +30718,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78688000567911</v>
+        <v>76.78688000567912</v>
       </c>
       <c r="K44" t="n">
-        <v>218.9504123780029</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>129.2319814776317</v>
       </c>
       <c r="P44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R44" t="n">
         <v>241.0121589565495</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>66.47212429454756</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30791,13 +30791,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I45" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280716788486</v>
+        <v>54.61587753937434</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30855,7 +30855,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>241.0121589565495</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30882,13 +30882,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L46" t="n">
-        <v>32.1559501061379</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M46" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O46" t="n">
         <v>37.48281412028791</v>
@@ -30897,7 +30897,7 @@
         <v>58.48196179900678</v>
       </c>
       <c r="Q46" t="n">
-        <v>155.7556574567417</v>
+        <v>230.3106354413187</v>
       </c>
       <c r="R46" t="n">
         <v>203.4312113734075</v>
@@ -31759,10 +31759,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L11" t="n">
         <v>64.17354745594147</v>
@@ -31771,22 +31771,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P11" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T11" t="n">
         <v>1.780141653523335</v>
@@ -31835,10 +31835,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K12" t="n">
         <v>35.13452037190598</v>
@@ -31847,13 +31847,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N12" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P12" t="n">
         <v>41.54838112698054</v>
@@ -31862,13 +31862,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R12" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431452333374772</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H13" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J13" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M13" t="n">
         <v>28.59397217425579</v>
@@ -31938,7 +31938,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R13" t="n">
         <v>8.201924628769305</v>
@@ -31947,10 +31947,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,10 +31996,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L14" t="n">
         <v>64.17354745594147</v>
@@ -32008,22 +32008,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P14" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T14" t="n">
         <v>1.780141653523335</v>
@@ -32072,10 +32072,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K15" t="n">
         <v>35.13452037190598</v>
@@ -32084,13 +32084,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N15" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P15" t="n">
         <v>41.54838112698054</v>
@@ -32099,13 +32099,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R15" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431452333374772</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H16" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J16" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L16" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M16" t="n">
         <v>28.59397217425579</v>
@@ -32175,7 +32175,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R16" t="n">
         <v>8.201924628769305</v>
@@ -32184,10 +32184,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,10 +32233,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L17" t="n">
         <v>64.17354745594147</v>
@@ -32245,22 +32245,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P17" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S17" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T17" t="n">
         <v>1.780141653523335</v>
@@ -32309,10 +32309,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K18" t="n">
         <v>35.13452037190598</v>
@@ -32321,13 +32321,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N18" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O18" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P18" t="n">
         <v>41.54838112698054</v>
@@ -32336,13 +32336,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R18" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431452333374772</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H19" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J19" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L19" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M19" t="n">
         <v>28.59397217425579</v>
@@ -32412,7 +32412,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R19" t="n">
         <v>8.201924628769305</v>
@@ -32421,10 +32421,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,10 +32470,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L20" t="n">
         <v>64.17354745594147</v>
@@ -32482,22 +32482,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P20" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S20" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T20" t="n">
         <v>1.780141653523335</v>
@@ -32546,10 +32546,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K21" t="n">
         <v>35.13452037190598</v>
@@ -32558,13 +32558,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N21" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O21" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P21" t="n">
         <v>41.54838112698054</v>
@@ -32573,13 +32573,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R21" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431452333374772</v>
@@ -32619,22 +32619,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H22" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J22" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L22" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M22" t="n">
         <v>28.59397217425579</v>
@@ -32649,7 +32649,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R22" t="n">
         <v>8.201924628769305</v>
@@ -32658,10 +32658,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,10 +32707,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L23" t="n">
         <v>64.17354745594147</v>
@@ -32719,22 +32719,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P23" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S23" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T23" t="n">
         <v>1.780141653523335</v>
@@ -32783,10 +32783,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K24" t="n">
         <v>35.13452037190598</v>
@@ -32795,13 +32795,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N24" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O24" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P24" t="n">
         <v>41.54838112698054</v>
@@ -32810,13 +32810,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R24" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431452333374772</v>
@@ -32856,22 +32856,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H25" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J25" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L25" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M25" t="n">
         <v>28.59397217425579</v>
@@ -32886,7 +32886,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R25" t="n">
         <v>8.201924628769305</v>
@@ -32895,10 +32895,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,10 +32944,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L26" t="n">
         <v>64.17354745594147</v>
@@ -32956,22 +32956,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P26" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T26" t="n">
         <v>1.780141653523335</v>
@@ -33020,10 +33020,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K27" t="n">
         <v>35.13452037190598</v>
@@ -33032,13 +33032,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P27" t="n">
         <v>41.54838112698054</v>
@@ -33047,13 +33047,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R27" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431452333374772</v>
@@ -33093,22 +33093,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H28" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J28" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L28" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M28" t="n">
         <v>28.59397217425579</v>
@@ -33123,7 +33123,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R28" t="n">
         <v>8.201924628769305</v>
@@ -33132,10 +33132,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,10 +33181,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L29" t="n">
         <v>64.17354745594147</v>
@@ -33193,22 +33193,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P29" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T29" t="n">
         <v>1.780141653523335</v>
@@ -33257,10 +33257,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K30" t="n">
         <v>35.13452037190598</v>
@@ -33269,13 +33269,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O30" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P30" t="n">
         <v>41.54838112698054</v>
@@ -33284,13 +33284,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R30" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431452333374772</v>
@@ -33330,22 +33330,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H31" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J31" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L31" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M31" t="n">
         <v>28.59397217425579</v>
@@ -33360,7 +33360,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R31" t="n">
         <v>8.201924628769305</v>
@@ -33369,10 +33369,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,10 +33418,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L32" t="n">
         <v>64.17354745594147</v>
@@ -33430,22 +33430,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P32" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S32" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T32" t="n">
         <v>1.780141653523335</v>
@@ -33494,10 +33494,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K33" t="n">
         <v>35.13452037190598</v>
@@ -33506,13 +33506,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O33" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P33" t="n">
         <v>41.54838112698054</v>
@@ -33521,13 +33521,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R33" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431452333374772</v>
@@ -33567,22 +33567,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H34" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J34" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L34" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M34" t="n">
         <v>28.59397217425579</v>
@@ -33597,7 +33597,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R34" t="n">
         <v>8.201924628769305</v>
@@ -33606,10 +33606,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,10 +33655,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L35" t="n">
         <v>64.17354745594147</v>
@@ -33667,22 +33667,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P35" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S35" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T35" t="n">
         <v>1.780141653523335</v>
@@ -33731,10 +33731,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K36" t="n">
         <v>35.13452037190598</v>
@@ -33743,13 +33743,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O36" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P36" t="n">
         <v>41.54838112698054</v>
@@ -33758,13 +33758,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R36" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431452333374772</v>
@@ -33804,22 +33804,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H37" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J37" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L37" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M37" t="n">
         <v>28.59397217425579</v>
@@ -33834,7 +33834,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R37" t="n">
         <v>8.201924628769305</v>
@@ -33843,10 +33843,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,10 +33892,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L38" t="n">
         <v>64.17354745594147</v>
@@ -33904,22 +33904,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P38" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S38" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T38" t="n">
         <v>1.780141653523335</v>
@@ -33968,10 +33968,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K39" t="n">
         <v>35.13452037190598</v>
@@ -33980,13 +33980,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O39" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P39" t="n">
         <v>41.54838112698054</v>
@@ -33995,13 +33995,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R39" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431452333374772</v>
@@ -34041,22 +34041,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H40" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J40" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L40" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M40" t="n">
         <v>28.59397217425579</v>
@@ -34071,7 +34071,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R40" t="n">
         <v>8.201924628769305</v>
@@ -34080,10 +34080,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,10 +34129,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L41" t="n">
         <v>64.17354745594147</v>
@@ -34141,22 +34141,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P41" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S41" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T41" t="n">
         <v>1.780141653523335</v>
@@ -34205,10 +34205,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K42" t="n">
         <v>35.13452037190598</v>
@@ -34217,13 +34217,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O42" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P42" t="n">
         <v>41.54838112698054</v>
@@ -34232,13 +34232,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R42" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431452333374772</v>
@@ -34278,22 +34278,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H43" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J43" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L43" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M43" t="n">
         <v>28.59397217425579</v>
@@ -34308,7 +34308,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R43" t="n">
         <v>8.201924628769305</v>
@@ -34317,10 +34317,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,10 +34366,10 @@
         <v>15.67764959393682</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537435</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565826</v>
+        <v>51.72831384565825</v>
       </c>
       <c r="L44" t="n">
         <v>64.17354745594147</v>
@@ -34378,22 +34378,22 @@
         <v>71.40543646355897</v>
       </c>
       <c r="N44" t="n">
-        <v>72.56085107762482</v>
+        <v>72.5608510776248</v>
       </c>
       <c r="O44" t="n">
-        <v>68.51715408911021</v>
+        <v>68.51715408911019</v>
       </c>
       <c r="P44" t="n">
         <v>58.47780581467106</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883909</v>
+        <v>43.91439679883908</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S44" t="n">
-        <v>9.266699698381045</v>
+        <v>9.266699698381043</v>
       </c>
       <c r="T44" t="n">
         <v>1.780141653523335</v>
@@ -34442,10 +34442,10 @@
         <v>2.101372025394165</v>
       </c>
       <c r="I45" t="n">
-        <v>7.491267211327973</v>
+        <v>7.491267211327972</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K45" t="n">
         <v>35.13452037190598</v>
@@ -34454,13 +34454,13 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13000086604036</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N45" t="n">
-        <v>56.58912794452706</v>
+        <v>56.58912794452705</v>
       </c>
       <c r="O45" t="n">
-        <v>51.76799648572082</v>
+        <v>51.76799648572081</v>
       </c>
       <c r="P45" t="n">
         <v>41.54838112698054</v>
@@ -34469,13 +34469,13 @@
         <v>27.7739924736929</v>
       </c>
       <c r="R45" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S45" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894769</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8770031295809431</v>
+        <v>0.877003129580943</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431452333374772</v>
@@ -34515,22 +34515,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H46" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248055</v>
+        <v>5.485638227248054</v>
       </c>
       <c r="J46" t="n">
         <v>12.89655637645348</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L46" t="n">
-        <v>27.11974835804555</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M46" t="n">
         <v>28.59397217425579</v>
@@ -34545,7 +34545,7 @@
         <v>22.06195011345467</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R46" t="n">
         <v>8.201924628769305</v>
@@ -34554,10 +34554,10 @@
         <v>3.178950568813335</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7793984180189191</v>
+        <v>0.779398418018919</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539406</v>
+        <v>0.009949767038539404</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.374773696533903</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1678556611008989</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,19 +35416,19 @@
         <v>47.18298822124891</v>
       </c>
       <c r="M11" t="n">
-        <v>81.66780162964173</v>
+        <v>141.6561311093517</v>
       </c>
       <c r="N11" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="O11" t="n">
-        <v>169.1617278813554</v>
+        <v>34.55585361291136</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.040877737904</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294917</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,37 +35556,37 @@
         <v>39.21488163109441</v>
       </c>
       <c r="G13" t="n">
-        <v>1.515361317579738</v>
+        <v>9.440961117302654</v>
       </c>
       <c r="H13" t="n">
-        <v>12.31711898238311</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.2879596068097</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90019044705602</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9858137434032</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6173515437901</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6589497292532</v>
+        <v>109.1532306467251</v>
       </c>
       <c r="P13" t="n">
         <v>119.6598020505343</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906448</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>171.7597610208011</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4860450762373</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N14" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="O14" t="n">
-        <v>34.55585361291138</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="P14" t="n">
-        <v>163.040877737904</v>
+        <v>10.77931271656757</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.42333294916992</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5248431845728874</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E16" t="n">
-        <v>36.46562263731607</v>
+        <v>36.46562263731599</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.440961117302654</v>
+        <v>9.440961117302569</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.31711898238303</v>
       </c>
       <c r="I16" t="n">
-        <v>13.2879596068097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90019044705602</v>
+        <v>57.90019044705593</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9858137434032</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>107.0597229467445</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292532</v>
+        <v>44.62330487742345</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.6598020505342</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.92244958906439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,28 +35878,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>17.46380383157718</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>177.0551166203138</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M17" t="n">
         <v>81.66780162964173</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874962</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O17" t="n">
-        <v>34.55585361291138</v>
+        <v>34.55585361291136</v>
       </c>
       <c r="P17" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>188.4860450762373</v>
@@ -35978,7 +35978,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,37 +36118,37 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>47.18298822124891</v>
       </c>
       <c r="M20" t="n">
-        <v>89.25277233621844</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874962</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O20" t="n">
-        <v>34.55585361291138</v>
+        <v>34.55585361291136</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.83022346753428</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98577569880338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>47.30138199368479</v>
@@ -36215,7 +36215,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871861</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.18298822124891</v>
+        <v>60.91215807098516</v>
       </c>
       <c r="M23" t="n">
-        <v>118.7325586309598</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874962</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291138</v>
+        <v>34.55585361291136</v>
       </c>
       <c r="P23" t="n">
         <v>188.4860450762373</v>
@@ -36379,10 +36379,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93352136559014</v>
       </c>
       <c r="T23" t="n">
         <v>74.98577569880338</v>
@@ -36452,7 +36452,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7011493464499</v>
+        <v>136.7011493464498</v>
       </c>
       <c r="K26" t="n">
         <v>206.7529522690257</v>
@@ -36607,16 +36607,16 @@
         <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0438829650404</v>
+        <v>248.0438829650403</v>
       </c>
       <c r="P26" t="n">
-        <v>198.387143240492</v>
+        <v>198.3871432404919</v>
       </c>
       <c r="Q26" t="n">
         <v>123.7695984517579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963818</v>
+        <v>18.60259019963814</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.30537910141825</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24645594964394</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,19 +36762,19 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>129.2454554904371</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>67.91781724701067</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.26871509165238</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05681797872153</v>
+        <v>10.0568179787215</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>198.387143240492</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7695984517579</v>
+        <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963818</v>
+        <v>18.6025901996382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63422510939765</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,13 +36993,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>35.58511237242458</v>
+        <v>181.3320792459911</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>196.963617046378</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.582425063413572</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>207.6628367282463</v>
       </c>
       <c r="L32" t="n">
-        <v>239.466559909705</v>
+        <v>239.4665599097054</v>
       </c>
       <c r="M32" t="n">
         <v>296.0657154409913</v>
@@ -37090,7 +37090,7 @@
         <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>19.5124746588588</v>
+        <v>19.51247465885879</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>43.80825411830028</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>32.84155168035814</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>182.2419637052117</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.96670243794215</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795246</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.58171807777951</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,31 +37312,31 @@
         <v>47.18298822124891</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="N35" t="n">
-        <v>76.07772050874962</v>
+        <v>76.07772050874961</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9581883228649</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.99942107602189</v>
+        <v>182.3406435341308</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.17363528201102</v>
       </c>
       <c r="S35" t="n">
-        <v>44.540667354824</v>
+        <v>44.54066735482388</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59292168803724</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90852798291854</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>35.55669493473939</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04691547795235</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.18073365900484</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4612548573207</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M38" t="n">
         <v>81.66780162964173</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4612548573207</v>
+        <v>34.55585361291136</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>175.6849548610255</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.17363528201102</v>
       </c>
       <c r="S38" t="n">
         <v>44.54066735482388</v>
@@ -37573,7 +37573,7 @@
         <v>49.59292168803713</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>8.60663568468769</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.95005925005194</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2252789508703</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2770818734462</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.18298822124891</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
         <v>322.6799605861912</v>
       </c>
       <c r="N41" t="n">
-        <v>205.3097019863813</v>
+        <v>76.07772050874961</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5680125694608</v>
+        <v>96.03966183381216</v>
       </c>
       <c r="P41" t="n">
         <v>225.9112728449124</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2937280561784</v>
       </c>
       <c r="R41" t="n">
         <v>46.12671980405867</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49375187687153</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.54600621008477</v>
@@ -37874,7 +37874,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.18751408939153</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>103.0913211808422</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.90380709145068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>212.2153352948997</v>
+        <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
-        <v>288.1951471777984</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M44" t="n">
-        <v>81.66780162964173</v>
+        <v>322.6799605861912</v>
       </c>
       <c r="N44" t="n">
         <v>317.0898794652991</v>
       </c>
       <c r="O44" t="n">
-        <v>34.55585361291138</v>
+        <v>163.7878350905431</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449124</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561784</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405867</v>
+        <v>46.12671980405869</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49375187687153</v>
+        <v>13.49375187687155</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54600621008477</v>
+        <v>18.5460062100848</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46347816017693</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>74.55497798457714</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.53634319626508</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
